--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mithun\Desktop\Imprezz_TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mithun\eclipse-workspace\Imprezz\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TC_001" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>manjuchandru94@gmail.com</t>
-  </si>
-  <si>
-    <t>Imprezz@23</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -66,6 +60,12 @@
   </si>
   <si>
     <t>TEST2</t>
+  </si>
+  <si>
+    <t>Enter your email</t>
+  </si>
+  <si>
+    <t>Enter your password</t>
   </si>
 </sst>
 </file>
@@ -397,14 +397,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -416,39 +416,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
@@ -471,13 +471,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,15 +489,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>53</v>
@@ -512,12 +512,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -529,15 +531,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>53</v>
@@ -552,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,45 +573,45 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
